--- a/data/trans_orig/P21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>581231</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>561608</v>
+        <v>562275</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>600598</v>
+        <v>600244</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.837493968407757</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8092189670544601</v>
+        <v>0.8101803097453223</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8654001925302377</v>
+        <v>0.8648904798879523</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>557</v>
@@ -765,19 +765,19 @@
         <v>551314</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>529027</v>
+        <v>528177</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>570708</v>
+        <v>570501</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8020165639458979</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7695943213673145</v>
+        <v>0.7683579694611306</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8302297202627238</v>
+        <v>0.8299278669373567</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1128</v>
@@ -786,19 +786,19 @@
         <v>1132546</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1104370</v>
+        <v>1103319</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1162503</v>
+        <v>1163022</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8198400371429955</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7994438835137347</v>
+        <v>0.7986827292132682</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8415258353269939</v>
+        <v>0.8419017686346453</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4481</v>
+        <v>4539</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001294608398756651</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.006456516156222257</v>
+        <v>0.006539696946493024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8016</v>
+        <v>7139</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003463043628472798</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01166174672923171</v>
+        <v>0.01038465933386783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -857,19 +857,19 @@
         <v>3279</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9334</v>
+        <v>9702</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00237364467771138</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0006497357941457525</v>
+        <v>0.0006520294915301286</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006757129584745733</v>
+        <v>0.00702350492513379</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>111883</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>92644</v>
+        <v>93114</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131437</v>
+        <v>130969</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1612114231934863</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1334906576167311</v>
+        <v>0.1341669909698354</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1893879243314859</v>
+        <v>0.1887134013296755</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>136</v>
@@ -907,19 +907,19 @@
         <v>133715</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>113666</v>
+        <v>114936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>154737</v>
+        <v>156430</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1945203924256293</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.165353795912926</v>
+        <v>0.1672021277099872</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2251015444303675</v>
+        <v>0.2275645614935017</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>247</v>
@@ -928,19 +928,19 @@
         <v>245598</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>217002</v>
+        <v>215481</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>273361</v>
+        <v>274319</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1777863181792932</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1570856100112553</v>
+        <v>0.1559850501543279</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1978832932249524</v>
+        <v>0.1985769228746561</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>775181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>750204</v>
+        <v>749667</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>800630</v>
+        <v>802741</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.805969122486544</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7799996095605434</v>
+        <v>0.7794412403993292</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8324289022124129</v>
+        <v>0.8346238520142615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>640</v>
@@ -1053,19 +1053,19 @@
         <v>684461</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>652303</v>
+        <v>654591</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>714629</v>
+        <v>709341</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7068009675997032</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6735934688434422</v>
+        <v>0.6759558502631311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.73795341967387</v>
+        <v>0.7324926812510867</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1363</v>
@@ -1074,19 +1074,19 @@
         <v>1459642</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1421951</v>
+        <v>1417622</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1501868</v>
+        <v>1494852</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7562156783354465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7366886978906066</v>
+        <v>0.7344458833759613</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7780923612231703</v>
+        <v>0.7744573505696117</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>8762</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4104</v>
+        <v>3597</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17120</v>
+        <v>16235</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009109523364229141</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004266649950387761</v>
+        <v>0.003740147500546392</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01779950815355126</v>
+        <v>0.01688018944158983</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -1124,19 +1124,19 @@
         <v>9977</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4680</v>
+        <v>4476</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18742</v>
+        <v>18135</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01030310002170278</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00483303774553601</v>
+        <v>0.004621626914811499</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01935419913421553</v>
+        <v>0.01872701898959682</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -1145,19 +1145,19 @@
         <v>18739</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11259</v>
+        <v>11649</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29245</v>
+        <v>29947</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.009708350171437877</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005833093226545388</v>
+        <v>0.006035045122554057</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01515116176117216</v>
+        <v>0.01551517873836277</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>177857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152865</v>
+        <v>151488</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>201562</v>
+        <v>204745</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1849213541492269</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1589359355225623</v>
+        <v>0.1575048936404365</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.209567887846987</v>
+        <v>0.2128773459727768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>259</v>
@@ -1195,19 +1195,19 @@
         <v>273954</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>245358</v>
+        <v>248766</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>307675</v>
+        <v>303348</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.282895932378594</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2533657002152409</v>
+        <v>0.2568855930813007</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3177173413438159</v>
+        <v>0.3132488055017962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>424</v>
@@ -1216,19 +1216,19 @@
         <v>451812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>409294</v>
+        <v>415508</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>489169</v>
+        <v>491783</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2340759714931157</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2120479817673582</v>
+        <v>0.2152678257310925</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2534298881363219</v>
+        <v>0.2547841667703518</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>554855</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>535072</v>
+        <v>531331</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>576599</v>
+        <v>572874</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8177564497713148</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7885992604505025</v>
+        <v>0.7830861589976758</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8498024673162199</v>
+        <v>0.8443129804096597</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>516</v>
@@ -1341,19 +1341,19 @@
         <v>507302</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>483150</v>
+        <v>483719</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>530472</v>
+        <v>529058</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7418424565125644</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7065239970941029</v>
+        <v>0.7073558344936337</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7757235283201452</v>
+        <v>0.7736558275440099</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1040</v>
@@ -1362,19 +1362,19 @@
         <v>1062157</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1030573</v>
+        <v>1027682</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1096762</v>
+        <v>1088058</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7796508927035541</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7564674572476159</v>
+        <v>0.7543449099123356</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8050513681523053</v>
+        <v>0.7986626070536831</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>5596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1936</v>
+        <v>2038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13408</v>
+        <v>13037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008247798508877024</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002853477471792472</v>
+        <v>0.00300342438496024</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01976059554928109</v>
+        <v>0.01921348286025263</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1412,19 +1412,19 @@
         <v>10122</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5362</v>
+        <v>5547</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18413</v>
+        <v>18417</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01480109950109533</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007841651188298059</v>
+        <v>0.008112151446886455</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02692601985743934</v>
+        <v>0.02693163697439716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1433,19 +1433,19 @@
         <v>15718</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9282</v>
+        <v>9161</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25450</v>
+        <v>25381</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01153727353477949</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006813003936875612</v>
+        <v>0.006724575554541833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01868070882629779</v>
+        <v>0.01863036124046286</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>118058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98411</v>
+        <v>99918</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138272</v>
+        <v>142685</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1739957517198082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1450400040179686</v>
+        <v>0.1472611211987156</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2037883906196305</v>
+        <v>0.210292225178134</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>169</v>
@@ -1483,19 +1483,19 @@
         <v>166417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>144352</v>
+        <v>145366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>189915</v>
+        <v>189573</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2433564439863402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.211089807961388</v>
+        <v>0.212573040133731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2777186025434321</v>
+        <v>0.2772172965947526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>281</v>
@@ -1504,19 +1504,19 @@
         <v>284475</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>250722</v>
+        <v>258625</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>314146</v>
+        <v>316070</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2088118337616664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1840364371622702</v>
+        <v>0.189837332696842</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2305909719341202</v>
+        <v>0.2320033425322201</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>804045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>780616</v>
+        <v>781031</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>824113</v>
+        <v>823522</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8541517648000295</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8292633494681185</v>
+        <v>0.8297034803834147</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8754704608166226</v>
+        <v>0.8748424341470064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>780</v>
@@ -1629,19 +1629,19 @@
         <v>811170</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>781701</v>
+        <v>786350</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>837681</v>
+        <v>837702</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7810134137144972</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.752639640121614</v>
+        <v>0.7571165969549604</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8065390216330929</v>
+        <v>0.8065587858575293</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1626</v>
@@ -1650,19 +1650,19 @@
         <v>1615215</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1581721</v>
+        <v>1581071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1648626</v>
+        <v>1647147</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8157859489728626</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7988695941957333</v>
+        <v>0.7985411077770593</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8326610169047908</v>
+        <v>0.8319136570825946</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>4353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1709</v>
+        <v>1724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9504</v>
+        <v>9629</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004624550898977032</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001815054873610707</v>
+        <v>0.001831244312686096</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01009655916781903</v>
+        <v>0.01022907456165657</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1700,19 +1700,19 @@
         <v>12973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6857</v>
+        <v>7060</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21985</v>
+        <v>22366</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01249037537500586</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006601903050163387</v>
+        <v>0.006797559167185187</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02116742653545012</v>
+        <v>0.02153431251655407</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -1721,19 +1721,19 @@
         <v>17326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10624</v>
+        <v>10437</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27561</v>
+        <v>26706</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008750686759262225</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005365549207531722</v>
+        <v>0.005271487407101449</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01391982609019888</v>
+        <v>0.01348843878828527</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>132939</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>112348</v>
+        <v>113470</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>155640</v>
+        <v>155288</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1412236843009935</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1193491018133487</v>
+        <v>0.1205411705093767</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1653396928224457</v>
+        <v>0.1649650946620513</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>205</v>
@@ -1771,19 +1771,19 @@
         <v>214469</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>188564</v>
+        <v>190178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>241591</v>
+        <v>240292</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.206496210910497</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1815542513254289</v>
+        <v>0.1831075581518433</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2326092956993691</v>
+        <v>0.2313584960488476</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>347</v>
@@ -1792,19 +1792,19 @@
         <v>347409</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>313989</v>
+        <v>316012</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>381969</v>
+        <v>380140</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1754633642678752</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1585844136018881</v>
+        <v>0.1596058903571159</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1929185479056402</v>
+        <v>0.191995090068853</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2715313</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2673755</v>
+        <v>2669091</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2759859</v>
+        <v>2759283</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8289362759508531</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8162495937884396</v>
+        <v>0.8148255909736249</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.842535463112646</v>
+        <v>0.8423597073718442</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2493</v>
@@ -1917,19 +1917,19 @@
         <v>2554248</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2506081</v>
+        <v>2503316</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2607173</v>
+        <v>2602559</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7560846549047984</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7418266308912977</v>
+        <v>0.7410080963009938</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7717508436882775</v>
+        <v>0.7703850428792802</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5157</v>
@@ -1938,19 +1938,19 @@
         <v>5269560</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5205201</v>
+        <v>5197198</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5338925</v>
+        <v>5330530</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7919488073880083</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7822765157755485</v>
+        <v>0.7810737510532103</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8023734545485869</v>
+        <v>0.8011118147764028</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>19609</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12347</v>
+        <v>11959</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30191</v>
+        <v>30255</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005986424383097811</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003769199477577419</v>
+        <v>0.003650850036686936</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.009216670890448026</v>
+        <v>0.009236301165427292</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>34</v>
@@ -1988,19 +1988,19 @@
         <v>35452</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25436</v>
+        <v>24304</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50265</v>
+        <v>47459</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01049424030612753</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007529375387455925</v>
+        <v>0.007194315539667333</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01487886508034444</v>
+        <v>0.01404822865264461</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -2009,19 +2009,19 @@
         <v>55062</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>41149</v>
+        <v>42109</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>71911</v>
+        <v>72503</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008275085875403508</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006184107365256673</v>
+        <v>0.006328429245140496</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01080731373733109</v>
+        <v>0.01089627156965744</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>540737</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>499109</v>
+        <v>495496</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>583781</v>
+        <v>586672</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1650772996660492</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1523689420137543</v>
+        <v>0.1512659867321313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1782180121618932</v>
+        <v>0.1791005127716076</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>769</v>
@@ -2059,19 +2059,19 @@
         <v>788556</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>736954</v>
+        <v>741191</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>837025</v>
+        <v>837995</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2334211047890741</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2181462345375177</v>
+        <v>0.2194003834665705</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2477682022718345</v>
+        <v>0.2480555508236792</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1299</v>
@@ -2080,19 +2080,19 @@
         <v>1329293</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1263304</v>
+        <v>1263011</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1392824</v>
+        <v>1392358</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1997761067365882</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1898587547619466</v>
+        <v>0.1898146518732342</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2093240099733729</v>
+        <v>0.2092539484300871</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>561318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>537788</v>
+        <v>538755</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>580420</v>
+        <v>581748</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7987546612192167</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7652704414455337</v>
+        <v>0.7666476375669328</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8259365649700572</v>
+        <v>0.8278252666916693</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>469</v>
@@ -2445,19 +2445,19 @@
         <v>503663</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>478548</v>
+        <v>477221</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>525077</v>
+        <v>526405</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7225639452022716</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6865328111326084</v>
+        <v>0.6846294358144794</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7532843800334683</v>
+        <v>0.7551900393623516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1007</v>
@@ -2466,19 +2466,19 @@
         <v>1064982</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1034119</v>
+        <v>1032964</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1097872</v>
+        <v>1098818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7608142155044084</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.738766431522092</v>
+        <v>0.7379411300522467</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7843106353950234</v>
+        <v>0.7849865020775106</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>7404</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3223</v>
+        <v>3344</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15398</v>
+        <v>15766</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01053551997212525</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004586886081719371</v>
+        <v>0.004758027385582194</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02191192286589912</v>
+        <v>0.02243548464158521</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -2516,19 +2516,19 @@
         <v>5294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2066</v>
+        <v>2086</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12575</v>
+        <v>12512</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007595120226147216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002964499914177951</v>
+        <v>0.002992322189081127</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0180407162456476</v>
+        <v>0.01794957772513716</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -2537,19 +2537,19 @@
         <v>12698</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6802</v>
+        <v>7306</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22049</v>
+        <v>21749</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009071298571222493</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004859187635808967</v>
+        <v>0.005219449651985239</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01575174357970555</v>
+        <v>0.0155370085215034</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>134020</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>113865</v>
+        <v>115205</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>156036</v>
+        <v>157128</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1907098188086581</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1620294171923007</v>
+        <v>0.163936251827434</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2220394716762999</v>
+        <v>0.2235929457926794</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>176</v>
@@ -2587,19 +2587,19 @@
         <v>188093</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>165999</v>
+        <v>166713</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>212452</v>
+        <v>213552</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2698409345715812</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2381453766709686</v>
+        <v>0.2391695431770856</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3047876854177003</v>
+        <v>0.3063655952605676</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>304</v>
@@ -2608,19 +2608,19 @@
         <v>322112</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>290183</v>
+        <v>288940</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>351691</v>
+        <v>354488</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2301144859243691</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2073046967824128</v>
+        <v>0.2064163501009157</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2512453262990525</v>
+        <v>0.253243386206317</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>789038</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>758745</v>
+        <v>758667</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>815886</v>
+        <v>817729</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7751272636414035</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7453680405027785</v>
+        <v>0.745291057019312</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8015013485758251</v>
+        <v>0.803312189237389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>670</v>
@@ -2733,19 +2733,19 @@
         <v>731703</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>700931</v>
+        <v>700702</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>760134</v>
+        <v>760241</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7088879971360674</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6790758082476088</v>
+        <v>0.6788540507570786</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7364327874063583</v>
+        <v>0.7365360708346697</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1395</v>
@@ -2754,19 +2754,19 @@
         <v>1520741</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1477499</v>
+        <v>1484296</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1560836</v>
+        <v>1559988</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7417776352823304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7206849639639825</v>
+        <v>0.7240007525941212</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7613347635956211</v>
+        <v>0.7609213484060852</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>7208</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3056</v>
+        <v>3041</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14626</v>
+        <v>14524</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007081177463409784</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.003001988581911349</v>
+        <v>0.002987387341963652</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01436831093788878</v>
+        <v>0.01426795402420455</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -2804,19 +2804,19 @@
         <v>23664</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14768</v>
+        <v>14924</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35256</v>
+        <v>36138</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02292655430114998</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01430756910095267</v>
+        <v>0.01445825103674235</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03415707890532184</v>
+        <v>0.03501125187143966</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -2825,19 +2825,19 @@
         <v>30873</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>19725</v>
+        <v>20089</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>44697</v>
+        <v>44586</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01505888399048208</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009621376709212707</v>
+        <v>0.009798757948397402</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02180225209632036</v>
+        <v>0.02174795779158015</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>221700</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>196376</v>
+        <v>193677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>251660</v>
+        <v>252145</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2177915588951867</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1929136909781063</v>
+        <v>0.1902619144152863</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2472226138966021</v>
+        <v>0.2476995302802735</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>250</v>
@@ -2875,19 +2875,19 @@
         <v>276817</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>248623</v>
+        <v>247898</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>307695</v>
+        <v>305971</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2681854485627826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.24087054257776</v>
+        <v>0.2401679836560416</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2981009630343128</v>
+        <v>0.296431107311189</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>454</v>
@@ -2896,19 +2896,19 @@
         <v>498517</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>460245</v>
+        <v>457936</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>539812</v>
+        <v>533329</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2431634807271875</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.224495452916038</v>
+        <v>0.2233690206736282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2633061981587757</v>
+        <v>0.2601440999146587</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>573801</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>548925</v>
+        <v>547488</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>596578</v>
+        <v>597296</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7573700626200914</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7245357166030996</v>
+        <v>0.7226387726665194</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7874336874248655</v>
+        <v>0.7883819227141216</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>465</v>
@@ -3021,19 +3021,19 @@
         <v>518200</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>490440</v>
+        <v>491182</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>544908</v>
+        <v>545041</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6675981372127117</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6318357090946481</v>
+        <v>0.6327905661651294</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7020070078141742</v>
+        <v>0.7021773074833222</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>985</v>
@@ -3042,19 +3042,19 @@
         <v>1092001</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1053090</v>
+        <v>1055199</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1127385</v>
+        <v>1128177</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7119400337188356</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6865715619029876</v>
+        <v>0.68794695241422</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7350089708790553</v>
+        <v>0.7355252212029261</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>10599</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5692</v>
+        <v>4872</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18801</v>
+        <v>17167</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01398929495064303</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007513327617200444</v>
+        <v>0.00643113401691705</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02481525206063571</v>
+        <v>0.02265889553102152</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3092,19 +3092,19 @@
         <v>10559</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5272</v>
+        <v>5109</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19507</v>
+        <v>18861</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01360275132269291</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006791994317531935</v>
+        <v>0.006582476782216195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02513029958534195</v>
+        <v>0.02429922576194775</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -3113,19 +3113,19 @@
         <v>21157</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13716</v>
+        <v>14213</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32152</v>
+        <v>30933</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01379368047418304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008942544005865315</v>
+        <v>0.009266602915064759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0209620013712343</v>
+        <v>0.02016735374177347</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>173223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>150108</v>
+        <v>151179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>198293</v>
+        <v>198347</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2286406424292655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1981304380427323</v>
+        <v>0.1995443613311976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2617300500931148</v>
+        <v>0.2618013253733123</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>229</v>
@@ -3163,19 +3163,19 @@
         <v>247457</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>221984</v>
+        <v>220025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>276950</v>
+        <v>275326</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3187991114645954</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2859827901217903</v>
+        <v>0.2834591075394642</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3567954490118707</v>
+        <v>0.3547037429668317</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>387</v>
@@ -3184,19 +3184,19 @@
         <v>420680</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>385830</v>
+        <v>383821</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>458866</v>
+        <v>456289</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2742662858069814</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.251545492444732</v>
+        <v>0.2502359331580729</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2991617465768214</v>
+        <v>0.2974821269055409</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>793382</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>768209</v>
+        <v>769901</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>815223</v>
+        <v>815266</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8388606285373719</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.812245303768115</v>
+        <v>0.8140343313211587</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8619533406349331</v>
+        <v>0.8619994226259802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>783</v>
@@ -3309,19 +3309,19 @@
         <v>822165</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>794613</v>
+        <v>793614</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>848428</v>
+        <v>848874</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7831976325384766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.756952013644369</v>
+        <v>0.7560002450230854</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8082159560563409</v>
+        <v>0.8086404373066374</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1543</v>
@@ -3330,19 +3330,19 @@
         <v>1615547</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1578501</v>
+        <v>1574294</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1651086</v>
+        <v>1648540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8095790913095645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7910143973803732</v>
+        <v>0.7889060450126147</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8273878435095482</v>
+        <v>0.8261123032145162</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>9854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4994</v>
+        <v>4984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16933</v>
+        <v>17742</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01041861619014879</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005280498971836182</v>
+        <v>0.005269895288337095</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01790389447498946</v>
+        <v>0.01875849831490173</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -3380,19 +3380,19 @@
         <v>13773</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7506</v>
+        <v>7843</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21785</v>
+        <v>22719</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01312002986586237</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007150130937388117</v>
+        <v>0.007471126241683479</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02075264128140318</v>
+        <v>0.02164252608746324</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -3401,19 +3401,19 @@
         <v>23627</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15541</v>
+        <v>15733</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33667</v>
+        <v>35157</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01183969573668784</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007787743604673564</v>
+        <v>0.007884034070505721</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01687111324591302</v>
+        <v>0.01761799881368159</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>142549</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>121337</v>
+        <v>120160</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>166595</v>
+        <v>165805</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1507207552724794</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1282927146845972</v>
+        <v>0.1270477259600984</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1761447528303592</v>
+        <v>0.1753089213080357</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>204</v>
@@ -3451,19 +3451,19 @@
         <v>213816</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>189904</v>
+        <v>186927</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>242649</v>
+        <v>241733</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.203682337595661</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1809030612813578</v>
+        <v>0.1780673787437947</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2311487533108008</v>
+        <v>0.230276302447684</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>342</v>
@@ -3472,19 +3472,19 @@
         <v>356366</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>320081</v>
+        <v>324873</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>392492</v>
+        <v>394957</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1785812129537477</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1603984030531418</v>
+        <v>0.1627993839531927</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1966844866633809</v>
+        <v>0.1979196994863877</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2717540</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2662515</v>
+        <v>2664683</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2765074</v>
+        <v>2765127</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7936514946802476</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7775812855167464</v>
+        <v>0.7782147144136183</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8075336917712382</v>
+        <v>0.8075490872542405</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2387</v>
@@ -3597,19 +3597,19 @@
         <v>2575731</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2520822</v>
+        <v>2517569</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2627544</v>
+        <v>2627744</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7244960675065899</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7090514060273183</v>
+        <v>0.7081363949668995</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7390700904551096</v>
+        <v>0.7391263056454281</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4930</v>
@@ -3618,19 +3618,19 @@
         <v>5293271</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5219663</v>
+        <v>5217323</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5360063</v>
+        <v>5367491</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7584242425707457</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7478775776269975</v>
+        <v>0.7475422728533464</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7679942501646635</v>
+        <v>0.769058538423013</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>35064</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23787</v>
+        <v>25021</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46418</v>
+        <v>48915</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01024048064310536</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006947008204390366</v>
+        <v>0.007307401974005845</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01355612950779794</v>
+        <v>0.01428537708207753</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>49</v>
@@ -3668,19 +3668,19 @@
         <v>53290</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>38823</v>
+        <v>40253</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>69473</v>
+        <v>69218</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01498931680829875</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01091996016910867</v>
+        <v>0.01132232308850719</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01954132591285717</v>
+        <v>0.019469436391528</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>84</v>
@@ -3689,19 +3689,19 @@
         <v>88354</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>71804</v>
+        <v>70476</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>108757</v>
+        <v>108731</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01265950190658344</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01028808195757898</v>
+        <v>0.01009786428738594</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0155827728985194</v>
+        <v>0.01557912841514767</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>671493</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>624568</v>
+        <v>621644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>723387</v>
+        <v>719378</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.196108024676647</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1824035917719971</v>
+        <v>0.1815498229117096</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2112634758072792</v>
+        <v>0.2100926551445286</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>859</v>
@@ -3739,19 +3739,19 @@
         <v>926182</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>877845</v>
+        <v>877424</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>981177</v>
+        <v>982026</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2605146156851114</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.246918421039296</v>
+        <v>0.2467999264438869</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2759832911163549</v>
+        <v>0.2762221929238725</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1487</v>
@@ -3760,19 +3760,19 @@
         <v>1597675</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1530733</v>
+        <v>1526101</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1677476</v>
+        <v>1669858</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2289162555226709</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2193246536353399</v>
+        <v>0.2186610124078919</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2403502063990601</v>
+        <v>0.2392585758464933</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>566973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>546252</v>
+        <v>545906</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>583383</v>
+        <v>584811</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8426381227250962</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8118425905426203</v>
+        <v>0.8113276584524558</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8670259875034151</v>
+        <v>0.8691486445230608</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>527</v>
@@ -4125,19 +4125,19 @@
         <v>531568</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>507016</v>
+        <v>510066</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>551502</v>
+        <v>552024</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7900381755957587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7535472248085386</v>
+        <v>0.7580806047104974</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8196637540826146</v>
+        <v>0.8204394928953712</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1074</v>
@@ -4146,19 +4146,19 @@
         <v>1098542</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1070318</v>
+        <v>1066802</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1127654</v>
+        <v>1126396</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8163384544787</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7953647088648188</v>
+        <v>0.7927524517178363</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8379719322792994</v>
+        <v>0.8370370839930449</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>11083</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5875</v>
+        <v>5964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19029</v>
+        <v>18875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01647188754809187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008731909562970335</v>
+        <v>0.008864058530468176</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0282813562074215</v>
+        <v>0.02805209885923177</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -4196,19 +4196,19 @@
         <v>9386</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4761</v>
+        <v>3762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17881</v>
+        <v>16113</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01395019932470762</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007076166886277061</v>
+        <v>0.005591191877401302</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02657481371980175</v>
+        <v>0.0239472948933849</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -4217,19 +4217,19 @@
         <v>20469</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13093</v>
+        <v>12593</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31291</v>
+        <v>30827</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01521105807362914</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009729829221453797</v>
+        <v>0.009358311624700088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02325242292722695</v>
+        <v>0.02290802599742344</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>94799</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77587</v>
+        <v>77003</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114326</v>
+        <v>114670</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.140889989726812</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.115310804068525</v>
+        <v>0.1144422806516799</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1699118519485613</v>
+        <v>0.1704225929775298</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>130</v>
@@ -4267,19 +4267,19 @@
         <v>131884</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>113050</v>
+        <v>112950</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>155135</v>
+        <v>154472</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1960116250795336</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1680199606251376</v>
+        <v>0.1678700325488174</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2305681774166347</v>
+        <v>0.2295817520075483</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>221</v>
@@ -4288,19 +4288,19 @@
         <v>226683</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>199795</v>
+        <v>200663</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>254995</v>
+        <v>256449</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1684504874476709</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.148469904374929</v>
+        <v>0.1491146188777528</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1894897135544317</v>
+        <v>0.1905697050228042</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>842018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>813164</v>
+        <v>817658</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>864194</v>
+        <v>867303</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8282655599517813</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7998829216957479</v>
+        <v>0.8043031770818977</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8500788540381885</v>
+        <v>0.8531379787341605</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>774</v>
@@ -4413,19 +4413,19 @@
         <v>822296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>796605</v>
+        <v>794623</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>847831</v>
+        <v>847411</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7910157046719858</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7663027651079015</v>
+        <v>0.7643960438261778</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8155797952317584</v>
+        <v>0.8151752114808724</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1562</v>
@@ -4434,19 +4434,19 @@
         <v>1664314</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1624126</v>
+        <v>1624757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1699799</v>
+        <v>1700282</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8094328310587803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7898876555476592</v>
+        <v>0.7901947550712584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8266911441398946</v>
+        <v>0.826925800661319</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>17251</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10577</v>
+        <v>10687</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28543</v>
+        <v>27699</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01696900791646032</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0104042338177601</v>
+        <v>0.01051260808366419</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0280765005386548</v>
+        <v>0.02724615560886996</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -4484,19 +4484,19 @@
         <v>18042</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10399</v>
+        <v>10273</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28872</v>
+        <v>29122</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.017355520472062</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01000313807300987</v>
+        <v>0.009881904991319591</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0277733342159525</v>
+        <v>0.02801427545347547</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>31</v>
@@ -4505,19 +4505,19 @@
         <v>35293</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23953</v>
+        <v>24379</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49584</v>
+        <v>51395</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01716442038501119</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01164944400857094</v>
+        <v>0.01185654893546698</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02411485268932452</v>
+        <v>0.02499598281054216</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>157335</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136280</v>
+        <v>133242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185869</v>
+        <v>182271</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1547654321317583</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1340539155351738</v>
+        <v>0.1310654096505195</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1828337187375453</v>
+        <v>0.1792938250066696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>185</v>
@@ -4555,19 +4555,19 @@
         <v>199207</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>173269</v>
+        <v>175849</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>225670</v>
+        <v>225408</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1916287748559523</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1666779242463696</v>
+        <v>0.1691601215740996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2170852406014256</v>
+        <v>0.2168335766672257</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>327</v>
@@ -4576,19 +4576,19 @@
         <v>356542</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>322035</v>
+        <v>321535</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>396136</v>
+        <v>397213</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1734027485562085</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1566206867339638</v>
+        <v>0.156377251952298</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1926594794223706</v>
+        <v>0.1931830225897638</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>630276</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>607583</v>
+        <v>609655</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>651755</v>
+        <v>650052</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8308566907233976</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8009420185511522</v>
+        <v>0.8036731042403239</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8591711683391755</v>
+        <v>0.8569254599024846</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>591</v>
@@ -4701,19 +4701,19 @@
         <v>628757</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>604448</v>
+        <v>604243</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>650620</v>
+        <v>650919</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8022521158573204</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7712347945206356</v>
+        <v>0.7709733166340146</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8301473545785597</v>
+        <v>0.8305289470310778</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1169</v>
@@ -4722,19 +4722,19 @@
         <v>1259033</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1226303</v>
+        <v>1225122</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1292366</v>
+        <v>1287843</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8163211490202947</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7950994170961365</v>
+        <v>0.7943337984615011</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8379329992012184</v>
+        <v>0.8350008352156031</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>6626</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2826</v>
+        <v>2421</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14665</v>
+        <v>13875</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008734780192258538</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003725690826100651</v>
+        <v>0.003191003762385747</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01933210726681924</v>
+        <v>0.01829075939517806</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4772,19 +4772,19 @@
         <v>10343</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4853</v>
+        <v>5120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18257</v>
+        <v>18313</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01319686452926183</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006191671574296481</v>
+        <v>0.006533255767773579</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0232941671020291</v>
+        <v>0.02336587534471143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -4793,19 +4793,19 @@
         <v>16969</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10203</v>
+        <v>10453</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27038</v>
+        <v>28502</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01100220815673393</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006615374314109621</v>
+        <v>0.006777363314439561</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01753037903870915</v>
+        <v>0.01848000019170368</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>121684</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101621</v>
+        <v>102305</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>145966</v>
+        <v>141462</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1604085290843438</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1339605094021839</v>
+        <v>0.1348626394979314</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1924185569241692</v>
+        <v>0.186481040956428</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>135</v>
@@ -4843,19 +4843,19 @@
         <v>144640</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122112</v>
+        <v>122870</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>165949</v>
+        <v>167449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1845510196134178</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1558070590661744</v>
+        <v>0.1567742423630137</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2117400579284142</v>
+        <v>0.213653728487701</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>246</v>
@@ -4864,19 +4864,19 @@
         <v>266324</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>236337</v>
+        <v>238914</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>299178</v>
+        <v>300133</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1726766428229713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1532338387738119</v>
+        <v>0.1549049217769228</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1939785750545264</v>
+        <v>0.1945976633905945</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>779828</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>753891</v>
+        <v>756446</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>800561</v>
+        <v>802221</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8334697061748698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8057490866695846</v>
+        <v>0.8084794367816651</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8556289563699666</v>
+        <v>0.8574036599882017</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>733</v>
@@ -4989,19 +4989,19 @@
         <v>793982</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>764887</v>
+        <v>766209</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>820182</v>
+        <v>821965</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7620083640582817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.734085203689866</v>
+        <v>0.7353535618878952</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7871531429079645</v>
+        <v>0.7888646126809924</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1511</v>
@@ -5010,19 +5010,19 @@
         <v>1573810</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1530335</v>
+        <v>1533274</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1606732</v>
+        <v>1609155</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7958180813657153</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7738342466924365</v>
+        <v>0.7753205387773959</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8124658278899783</v>
+        <v>0.8136907857296605</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>11248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5697</v>
+        <v>5841</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19594</v>
+        <v>19269</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01202132436822854</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006088394671039814</v>
+        <v>0.006242434574252731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02094231056029229</v>
+        <v>0.02059460869711892</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -5060,19 +5060,19 @@
         <v>22785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14322</v>
+        <v>14819</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34097</v>
+        <v>35291</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02186731200767345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01374483712535665</v>
+        <v>0.01422250485766341</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0327238626449855</v>
+        <v>0.03386995223790244</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -5081,19 +5081,19 @@
         <v>34032</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22937</v>
+        <v>23831</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49684</v>
+        <v>49001</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01720898837642941</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01159839325547714</v>
+        <v>0.0120506530281269</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02512321601282222</v>
+        <v>0.02477780033869855</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>144565</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>125674</v>
+        <v>123291</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>169136</v>
+        <v>169637</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1545089694569016</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1343185001738557</v>
+        <v>0.1317713308954398</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1807705312291982</v>
+        <v>0.1813063316671163</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>205</v>
@@ -5131,19 +5131,19 @@
         <v>225193</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>197917</v>
+        <v>199927</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>253519</v>
+        <v>253980</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2161243239340449</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1899464157817262</v>
+        <v>0.1918757158992902</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2433101844312714</v>
+        <v>0.2437518129182689</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>346</v>
@@ -5152,19 +5152,19 @@
         <v>369758</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>336855</v>
+        <v>334099</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>409300</v>
+        <v>406226</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1869729302578553</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1703353496161432</v>
+        <v>0.1689418006983471</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2069681675167033</v>
+        <v>0.2054134425900983</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2819094</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2769810</v>
+        <v>2778248</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2860641</v>
+        <v>2863549</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8331435114725148</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.818578252671554</v>
+        <v>0.8210719993468595</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8454220987519014</v>
+        <v>0.8462815131072912</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2625</v>
@@ -5277,19 +5277,19 @@
         <v>2776603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2728867</v>
+        <v>2729400</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2830648</v>
+        <v>2827437</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.784776230876526</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.771284143111077</v>
+        <v>0.7714347178646216</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8000513122924281</v>
+        <v>0.7991437292924066</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5316</v>
@@ -5298,19 +5298,19 @@
         <v>5595698</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5524459</v>
+        <v>5529108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5658066</v>
+        <v>5661187</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8084204252963684</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7981283700614563</v>
+        <v>0.7988001463085928</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8174308753741188</v>
+        <v>0.8178817728497383</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>46208</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>33896</v>
+        <v>33970</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62177</v>
+        <v>60386</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01365601796473839</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01001749320454418</v>
+        <v>0.01003929829323047</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01837544560433826</v>
+        <v>0.01784612492263336</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>53</v>
@@ -5348,19 +5348,19 @@
         <v>60556</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>46114</v>
+        <v>46596</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>78006</v>
+        <v>79520</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01711543776173046</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0130335872139232</v>
+        <v>0.01316976069641997</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0220475783360251</v>
+        <v>0.02247545123907244</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>98</v>
@@ -5369,19 +5369,19 @@
         <v>106763</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>87465</v>
+        <v>87956</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>128809</v>
+        <v>131033</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01542431117259748</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01263618124289315</v>
+        <v>0.01270709662095822</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01860922313510311</v>
+        <v>0.01893062890171053</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>518382</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>474603</v>
+        <v>474744</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>563374</v>
+        <v>560151</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1532004705627469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1402621965147369</v>
+        <v>0.1403039123107307</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1664970864091792</v>
+        <v>0.1655446667567533</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>655</v>
@@ -5419,19 +5419,19 @@
         <v>700924</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>651398</v>
+        <v>649577</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>749762</v>
+        <v>746755</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1981083313617435</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1841104503760874</v>
+        <v>0.1835956677093142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2119117943481831</v>
+        <v>0.2110619624449732</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1140</v>
@@ -5440,19 +5440,19 @@
         <v>1219306</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1157092</v>
+        <v>1161597</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1289152</v>
+        <v>1288494</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1761552635310341</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1671671715471844</v>
+        <v>0.1678180527265754</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1862461389922756</v>
+        <v>0.1861510934267357</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>550210</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>523909</v>
+        <v>526081</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>570315</v>
+        <v>571059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7988655047591118</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7606791176166032</v>
+        <v>0.7638322117244636</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8280571430365986</v>
+        <v>0.8291375627921769</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>987</v>
@@ -5805,19 +5805,19 @@
         <v>579429</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>560763</v>
+        <v>559510</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>596175</v>
+        <v>597360</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7903684640545882</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7649068136470472</v>
+        <v>0.7631978043776577</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.813210817947196</v>
+        <v>0.8148264827545431</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1569</v>
@@ -5826,19 +5826,19 @@
         <v>1129639</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1102165</v>
+        <v>1100285</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1160669</v>
+        <v>1158315</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7944843937691938</v>
+        <v>0.7944843937691937</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7751614099916093</v>
+        <v>0.7738393996372838</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8163081227770077</v>
+        <v>0.8146519797251701</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>1817</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5232</v>
+        <v>4812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002638042916455628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0005024173994263153</v>
+        <v>0.0005060032781872693</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.007596857098858615</v>
+        <v>0.0069873021437677</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -5876,19 +5876,19 @@
         <v>4137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2008</v>
+        <v>1894</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7939</v>
+        <v>7304</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.005643339966008265</v>
+        <v>0.005643339966008266</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002739479374369959</v>
+        <v>0.002583421628528251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01082882278375173</v>
+        <v>0.009963612458751719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -5897,19 +5897,19 @@
         <v>5954</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3133</v>
+        <v>3253</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10573</v>
+        <v>10352</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004187587091847638</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002203666487360582</v>
+        <v>0.002287959772274125</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.007435944454102278</v>
+        <v>0.007280542306272175</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>136712</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117333</v>
+        <v>116193</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163678</v>
+        <v>160681</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1984964523244326</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1703585103904791</v>
+        <v>0.1687045441857693</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2376488822932816</v>
+        <v>0.2332973509594757</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>243</v>
@@ -5947,19 +5947,19 @@
         <v>149546</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>132577</v>
+        <v>131608</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>167723</v>
+        <v>169335</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2039881959794035</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1808405968469434</v>
+        <v>0.1795188842098035</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2287815671540281</v>
+        <v>0.230981157479353</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>387</v>
@@ -5968,19 +5968,19 @@
         <v>286259</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>255175</v>
+        <v>258374</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>312750</v>
+        <v>316868</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2013280191389586</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1794665770711285</v>
+        <v>0.1817167953087946</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2199597207838492</v>
+        <v>0.2228558838018036</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>814550</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>781342</v>
+        <v>784256</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>844486</v>
+        <v>843356</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7765631938977072</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7449036137241176</v>
+        <v>0.7476813019367811</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8051029095931939</v>
+        <v>0.8040253928646236</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1146</v>
@@ -6093,19 +6093,19 @@
         <v>808207</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>783253</v>
+        <v>782720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>835279</v>
+        <v>832883</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7561018665816295</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7327561719458461</v>
+        <v>0.732258283075668</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7814279895737122</v>
+        <v>0.7791866300323432</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1903</v>
@@ -6114,19 +6114,19 @@
         <v>1622757</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1580433</v>
+        <v>1580005</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1665321</v>
+        <v>1662668</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7662359347652818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.746251011506364</v>
+        <v>0.7460488138391496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7863334629760593</v>
+        <v>0.7850810412642563</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>3660</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9009</v>
+        <v>9387</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003489542696851697</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0009811213529151968</v>
+        <v>0.0009851259613186402</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.008588868114824037</v>
+        <v>0.008949554490905669</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -6164,19 +6164,19 @@
         <v>6393</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3421</v>
+        <v>3043</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12095</v>
+        <v>11926</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.005981164876853179</v>
+        <v>0.005981164876853178</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003200354785870886</v>
+        <v>0.002846560244163062</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01131518468927697</v>
+        <v>0.01115672942141978</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -6185,19 +6185,19 @@
         <v>10054</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5545</v>
+        <v>5146</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17894</v>
+        <v>16711</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.004747116436594109</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002618218738490284</v>
+        <v>0.002429681908108588</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.008449331764639068</v>
+        <v>0.00789062755504211</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>230706</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>199977</v>
+        <v>202103</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>263868</v>
+        <v>261225</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2199472634054412</v>
+        <v>0.2199472634054411</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.190651064054678</v>
+        <v>0.1926781345648077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2515626074330241</v>
+        <v>0.2490425628952017</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>358</v>
@@ -6235,19 +6235,19 @@
         <v>254313</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226905</v>
+        <v>230136</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>277732</v>
+        <v>280931</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2379169685415175</v>
+        <v>0.2379169685415176</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.212276025889181</v>
+        <v>0.2152990235751216</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2598267943332151</v>
+        <v>0.2628196780854364</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>561</v>
@@ -6256,19 +6256,19 @@
         <v>485019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>443523</v>
+        <v>445852</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>524857</v>
+        <v>525564</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2290169487981239</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2094232317301704</v>
+        <v>0.2105228776636435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2478277801908157</v>
+        <v>0.248161606825902</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>650274</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>623332</v>
+        <v>621001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>673340</v>
+        <v>674381</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8097318656617909</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7761832438534639</v>
+        <v>0.7732810575719128</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8384540622372643</v>
+        <v>0.8397507746322045</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>765</v>
@@ -6381,19 +6381,19 @@
         <v>590443</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>563990</v>
+        <v>568218</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>613393</v>
+        <v>613921</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7303715059701895</v>
+        <v>0.7303715059701894</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6976503821396329</v>
+        <v>0.7028801409504315</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7587606965257255</v>
+        <v>0.7594144249781792</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1308</v>
@@ -6402,19 +6402,19 @@
         <v>1240716</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1206203</v>
+        <v>1205784</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1275213</v>
+        <v>1273148</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7699201759533689</v>
+        <v>0.769920175953369</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7485032094763248</v>
+        <v>0.748243029531106</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7913267184317694</v>
+        <v>0.7900455594960306</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>5579</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2054</v>
+        <v>2014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11672</v>
+        <v>11642</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006946756333325068</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002557611691129546</v>
+        <v>0.002508330365005495</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01453378331375595</v>
+        <v>0.01449622170098443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -6452,19 +6452,19 @@
         <v>2624</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6337</v>
+        <v>6626</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003245695052078982</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0008195570569170454</v>
+        <v>0.0008277122322406325</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007839014264795701</v>
+        <v>0.008196765807019741</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -6473,19 +6473,19 @@
         <v>8203</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4320</v>
+        <v>4183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15268</v>
+        <v>14698</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.005090092579614576</v>
+        <v>0.005090092579614577</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00268057974618544</v>
+        <v>0.002595989246765862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009474691351226713</v>
+        <v>0.009120494321570255</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>147220</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>124719</v>
+        <v>123489</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173880</v>
+        <v>176629</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1833213780048841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1553019462625864</v>
+        <v>0.1537711635796396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2165181533948099</v>
+        <v>0.219941153752683</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>275</v>
@@ -6523,19 +6523,19 @@
         <v>215348</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>192121</v>
+        <v>192126</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>240944</v>
+        <v>237028</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2663827989777315</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2376515492814156</v>
+        <v>0.2376585251716068</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2980456912700576</v>
+        <v>0.293201365390808</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>402</v>
@@ -6544,19 +6544,19 @@
         <v>362568</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>328386</v>
+        <v>330843</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>396340</v>
+        <v>397702</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2249897314670164</v>
+        <v>0.2249897314670165</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2037780268558473</v>
+        <v>0.2053028236032289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2459467844922337</v>
+        <v>0.2467917461924975</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>782575</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>750756</v>
+        <v>756869</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>806920</v>
+        <v>809142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7904302812959866</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7582917328215283</v>
+        <v>0.7644663825266059</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8150194810086577</v>
+        <v>0.8172644008134218</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1145</v>
@@ -6669,19 +6669,19 @@
         <v>815358</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>787983</v>
+        <v>788947</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>841514</v>
+        <v>840296</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7294790735959494</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7049877696015983</v>
+        <v>0.7058501093309811</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7528807754712987</v>
+        <v>0.7517908055876199</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1943</v>
@@ -6690,19 +6690,19 @@
         <v>1597933</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1558679</v>
+        <v>1560012</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1634741</v>
+        <v>1635315</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7581088410733753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7394854574587385</v>
+        <v>0.7401182258292649</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7755718445020915</v>
+        <v>0.7758441071092372</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>9675</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5258</v>
+        <v>4828</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16023</v>
+        <v>17199</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009771631426989015</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005311026021304443</v>
+        <v>0.004876650167250254</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0161834246999884</v>
+        <v>0.01737189251997622</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -6740,19 +6740,19 @@
         <v>19040</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13111</v>
+        <v>12646</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28014</v>
+        <v>28363</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01703429848640108</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01172971993271879</v>
+        <v>0.01131411786309428</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02506362501575526</v>
+        <v>0.02537536051820445</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -6761,19 +6761,19 @@
         <v>28714</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20598</v>
+        <v>20136</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39545</v>
+        <v>39131</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01362290637420179</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009772553677383314</v>
+        <v>0.009553132479503332</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01876121558614306</v>
+        <v>0.01856500580301666</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>197812</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>173640</v>
+        <v>173048</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>229868</v>
+        <v>224429</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1997980872770243</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1753833893701431</v>
+        <v>0.1747851642350668</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2321748698850549</v>
+        <v>0.2266817841160339</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>388</v>
@@ -6811,19 +6811,19 @@
         <v>283329</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>257261</v>
+        <v>259265</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>311022</v>
+        <v>309909</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2534866279176495</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2301646341117995</v>
+        <v>0.2319573523063214</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2782627455677735</v>
+        <v>0.2772677478064811</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>584</v>
@@ -6832,19 +6832,19 @@
         <v>481141</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>446731</v>
+        <v>445538</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>522677</v>
+        <v>519627</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2282682525524229</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2119429053804387</v>
+        <v>0.2113770802725541</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2479742615136899</v>
+        <v>0.2465272267243905</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>2797610</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2745695</v>
+        <v>2745920</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2850002</v>
+        <v>2853837</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7923462322186355</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7776428357096279</v>
+        <v>0.7777066612141736</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8071850407195638</v>
+        <v>0.808271099221493</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4043</v>
@@ -6957,19 +6957,19 @@
         <v>2793437</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2746197</v>
+        <v>2741664</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2841943</v>
+        <v>2837636</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7492790821854085</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7366080298241331</v>
+        <v>0.7353920508253479</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.762289949991912</v>
+        <v>0.7611346753694243</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6723</v>
@@ -6978,19 +6978,19 @@
         <v>5591047</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5518045</v>
+        <v>5517917</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5659897</v>
+        <v>5652871</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.770227148058714</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7601703632830673</v>
+        <v>0.7601527376459092</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7797120685453148</v>
+        <v>0.7787441662142296</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>20730</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13430</v>
+        <v>12835</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30720</v>
+        <v>30360</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.005871329522739726</v>
+        <v>0.005871329522739728</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003803637182875318</v>
+        <v>0.003635174016605662</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.008700713718787239</v>
+        <v>0.008598714429436207</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>49</v>
@@ -7028,19 +7028,19 @@
         <v>32194</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24206</v>
+        <v>23637</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>42671</v>
+        <v>42763</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.008635370567720303</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006492662077610336</v>
+        <v>0.006340124598157043</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01144569349059791</v>
+        <v>0.01147023095718375</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>74</v>
@@ -7049,19 +7049,19 @@
         <v>52925</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>42418</v>
+        <v>40587</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>67404</v>
+        <v>67174</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00729092790452803</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00584356389837013</v>
+        <v>0.005591272241889727</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.009285570208554543</v>
+        <v>0.009253970882057842</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>712452</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>658870</v>
+        <v>658607</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>763767</v>
+        <v>764936</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2017824382586246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1866067806515566</v>
+        <v>0.1865324077430032</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2163159242041635</v>
+        <v>0.2166471123533554</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1264</v>
@@ -7099,19 +7099,19 @@
         <v>902535</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>857285</v>
+        <v>860992</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>950438</v>
+        <v>954616</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2420855472468712</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2299481975988693</v>
+        <v>0.2309425714181052</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2549345801301956</v>
+        <v>0.2560552231059673</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1934</v>
@@ -7120,19 +7120,19 @@
         <v>1614987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1550223</v>
+        <v>1553494</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1691654</v>
+        <v>1687744</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.222481924036758</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2135600165812592</v>
+        <v>0.2140105781449059</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2330436411109989</v>
+        <v>0.2325050389575387</v>
       </c>
     </row>
     <row r="23">
